--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T22:52:25+00:00</t>
+    <t>2022-09-21T21:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T21:21:33+00:00</t>
+    <t>2022-09-22T20:32:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T20:32:21+00:00</t>
+    <t>2022-10-04T16:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-04T16:21:03+00:00</t>
+    <t>2022-10-05T16:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T16:43:24+00:00</t>
+    <t>2022-10-05T17:01:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T17:01:44+00:00</t>
+    <t>2022-10-14T20:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-14T20:19:28+00:00</t>
+    <t>2022-11-09T18:06:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:06:00+00:00</t>
+    <t>2022-11-09T18:16:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:16:12+00:00</t>
+    <t>2022-11-14T18:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T18:26:34+00:00</t>
+    <t>2022-11-14T19:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:03:53+00:00</t>
+    <t>2022-11-30T18:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hlth.gov.bc.ca/fhir/client/ValueSet/bc-client-registry-update-patient-operation-value-set</t>
+    <t>https://terminology.hlth.gov.bc.ca/ClientRegistry/ValueSet/bc-client-registry-update-patient-operation-value-set</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T18:54:03+00:00</t>
+    <t>2022-11-30T20:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://hlth.gov.bc.ca/fhir/client/CodeSystem/bc-client-registry-update-patient-operation-code-system</t>
+    <t>https://terminology.hlth.gov.bc.ca/ClientRegistry/CodeSystem/bc-client-registry-update-patient-operation-code-system</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:29:42+00:00</t>
+    <t>2022-12-01T22:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T22:48:36+00:00</t>
+    <t>2022-12-19T23:56:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T23:56:39+00:00</t>
+    <t>2023-01-30T21:25:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:25:21+00:00</t>
+    <t>2023-01-30T21:26:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:26:21+00:00</t>
+    <t>2023-02-01T18:07:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:07:18+00:00</t>
+    <t>2023-02-01T18:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:22:44+00:00</t>
+    <t>2023-02-02T00:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T00:15:50+00:00</t>
+    <t>2023-02-02T17:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T17:38:38+00:00</t>
+    <t>2023-02-07T22:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T22:10:03+00:00</t>
+    <t>2023-02-08T18:25:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T18:25:04+00:00</t>
+    <t>2023-02-09T00:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:02+00:00</t>
+    <t>2023-02-09T00:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:19+00:00</t>
+    <t>2023-02-17T22:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T22:47:47+00:00</t>
+    <t>2023-02-17T23:20:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T23:20:35+00:00</t>
+    <t>2023-02-21T21:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:28:27+00:00</t>
+    <t>2023-02-21T21:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:29:24+00:00</t>
+    <t>2023-04-17T21:31:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T21:31:48+00:00</t>
+    <t>2023-06-28T23:19:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -230,10 +230,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28T23:19:40+00:00</t>
+    <t>2023-07-28T15:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:45:10+00:00</t>
+    <t>2023-07-28T16:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:00:21+00:00</t>
+    <t>2023-07-28T16:52:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:52:29+00:00</t>
+    <t>2023-08-14T17:02:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:02:44+00:00</t>
+    <t>2023-08-14T17:37:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:37:04+00:00</t>
+    <t>2023-09-14T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-14T16:14:11+00:00</t>
+    <t>2023-10-18T23:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T23:27:00+00:00</t>
+    <t>2023-10-20T17:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T17:32:48+00:00</t>
+    <t>2023-10-20T21:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T21:39:43+00:00</t>
+    <t>2023-10-25T21:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-25T21:08:14+00:00</t>
+    <t>2024-01-19T19:46:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T19:46:50+00:00</t>
+    <t>2024-01-29T03:29:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T03:29:58+00:00</t>
+    <t>2024-01-29T15:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T15:29:51+00:00</t>
+    <t>2024-01-30T22:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:14:57+00:00</t>
+    <t>2024-01-30T22:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:36:39+00:00</t>
+    <t>2024-02-05T17:54:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:54:19+00:00</t>
+    <t>2024-02-22T21:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T21:56:41+00:00</t>
+    <t>2024-02-22T22:07:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T22:07:28+00:00</t>
+    <t>2024-03-08T19:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T19:30:19+00:00</t>
+    <t>2024-03-25T22:09:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -54,10 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:09:10+00:00</t>
+    <t>2024-04-16T20:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -304,66 +307,68 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -385,28 +390,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T20:55:14+00:00</t>
+    <t>2024-04-16T21:07:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:07:01+00:00</t>
+    <t>2024-04-23T21:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T21:08:53+00:00</t>
+    <t>2024-04-26T16:50:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T16:50:56+00:00</t>
+    <t>2024-04-28T02:00:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T02:00:16+00:00</t>
+    <t>2024-05-03T17:46:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T17:46:35+00:00</t>
+    <t>2024-05-03T18:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T18:19:03+00:00</t>
+    <t>2024-05-03T21:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:10:00+00:00</t>
+    <t>2024-05-03T21:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:38:12+00:00</t>
+    <t>2024-05-14T21:02:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
+++ b/ValueSet-bc-client-registry-update-patient-operation-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T21:02:37+00:00</t>
+    <t>2024-06-07T23:38:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
